--- a/LIST-AVEGA-CLAIMS1.xlsx
+++ b/LIST-AVEGA-CLAIMS1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\avega-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6A3E1D-0511-42CF-BB9B-B791D7A82715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A6690-28D6-49CA-A38A-93E07072E665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{71392CFB-8C2D-41C0-89A7-D01D59A4380D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{71392CFB-8C2D-41C0-89A7-D01D59A4380D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="EMPLOYEE-LIST" sheetId="5" r:id="rId4"/>
+    <sheet name="April" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="100">
   <si>
     <t>ABRIAM, AGNES BURGOS</t>
   </si>
@@ -297,6 +299,36 @@
   </si>
   <si>
     <t>WTR</t>
+  </si>
+  <si>
+    <t>ARCEGA, NOEL CALUNGSOD</t>
+  </si>
+  <si>
+    <t>BORJA, EMMA JULIET</t>
+  </si>
+  <si>
+    <t>CAPARAS, CHARLES VICTOR EDQUILA</t>
+  </si>
+  <si>
+    <t>ESTOESTA, JOSEPH MADULID</t>
+  </si>
+  <si>
+    <t>DELOS REYES, JOHN CARLO</t>
+  </si>
+  <si>
+    <t>ANGELES, MA. LEOSELLE ARCENO</t>
+  </si>
+  <si>
+    <t>GADIN, CHRISTIAN</t>
+  </si>
+  <si>
+    <t>GAMBOA, MELCHOR</t>
+  </si>
+  <si>
+    <t>INCISO, ARLENE ORAIN</t>
+  </si>
+  <si>
+    <t>MARTEJA, ELIZABETH</t>
   </si>
 </sst>
 </file>
@@ -306,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,16 +353,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -338,14 +393,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -663,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66C9EC3-293B-43CC-BD95-41558FD54872}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -890,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7FDB17-073C-4D44-A52E-58E0DBDD3A3D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -965,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC9AB6B-5142-4DC6-8FAF-652F1F768000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,4 +1789,1067 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EBA31E-876A-42AA-B99C-147C7BCF8565}">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="16381" max="16384" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E542C382-01BD-4BFD-8F04-DCF78A2CC2FB}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11444.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2196.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>188.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4134.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15228.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="1">
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1365.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11018.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1720.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>832.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5189.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="1">
+        <v>188.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="1">
+        <v>879.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1276.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1">
+        <v>499.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <f>SUM(B2:B39)</f>
+        <v>72834.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LIST-AVEGA-CLAIMS1.xlsx
+++ b/LIST-AVEGA-CLAIMS1.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\avega-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A6690-28D6-49CA-A38A-93E07072E665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0020DD19-3473-4CFF-97FA-41B315A1FDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{71392CFB-8C2D-41C0-89A7-D01D59A4380D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{71392CFB-8C2D-41C0-89A7-D01D59A4380D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="EMPLOYEE-LIST" sheetId="5" r:id="rId4"/>
-    <sheet name="April" sheetId="4" r:id="rId5"/>
+    <sheet name="list" sheetId="5" r:id="rId4"/>
+    <sheet name="EMPLOYEE-LIST" sheetId="6" r:id="rId5"/>
+    <sheet name="April" sheetId="4" r:id="rId6"/>
+    <sheet name="June" sheetId="8" r:id="rId7"/>
+    <sheet name="claims" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="106">
   <si>
     <t>ABRIAM, AGNES BURGOS</t>
   </si>
@@ -329,6 +332,24 @@
   </si>
   <si>
     <t>MARTEJA, ELIZABETH</t>
+  </si>
+  <si>
+    <t>GALLARTE, MYRNA DOMAGSANG</t>
+  </si>
+  <si>
+    <t>ARIANNE MAE BALMES BROWN</t>
+  </si>
+  <si>
+    <t>CELESTINO, JUHNE VILMA ALFORQUE</t>
+  </si>
+  <si>
+    <t>BORJA, EMMA JULIET P</t>
+  </si>
+  <si>
+    <t>ATIM, RIZALDY CASTILLO</t>
+  </si>
+  <si>
+    <t>WP</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC9AB6B-5142-4DC6-8FAF-652F1F768000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
@@ -1795,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EBA31E-876A-42AA-B99C-147C7BCF8565}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,11 +2539,737 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72C8454-7145-4D62-9571-C4A9738901A6}">
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="16381" max="16384" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E542C382-01BD-4BFD-8F04-DCF78A2CC2FB}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,4 +3599,574 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF56BE0-86C6-4B98-BF87-D2C6954FFD2D}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f>3678.54-0.01</f>
+        <v>3678.5299999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1465.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>28016.959999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6982.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10826.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2118.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2731.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9912.2999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>721.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1">
+        <v>34406.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3463.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7597.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4159.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10189.799999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
+        <v>721.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1">
+        <v>17127.259999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2892.66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <f>SUM(B2:B32)</f>
+        <v>158667.21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>158667.21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <f>B33-B34</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE57FBD-070E-4D0C-BEAD-D2A6F747E004}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f>3678.54-0.01</f>
+        <v>3678.5299999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1465.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>28016.959999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6982.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10826.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2118.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2731.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9912.2999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>721.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1">
+        <v>34406.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3463.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7597.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4159.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10189.799999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1">
+        <v>721.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1">
+        <v>17127.259999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2892.66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <f>SUM(B2:B32)</f>
+        <v>158667.21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>158667.21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <f>B33-B34</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>